--- a/parsec/Parsec - Apoio.xlsx
+++ b/parsec/Parsec - Apoio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -104,6 +104,75 @@
   </si>
   <si>
     <t>020</t>
+  </si>
+  <si>
+    <t>parsecmgmt -a run -p splash2x.fft -i simsmall -n 4  &gt;  result/exec-200-splash2x-fft-simsmall.txt</t>
+  </si>
+  <si>
+    <t>bodytrack</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>fluidanimate</t>
+  </si>
+  <si>
+    <t>freqmine</t>
+  </si>
+  <si>
+    <t>pacote</t>
+  </si>
+  <si>
+    <t>comando de execução do benchmark</t>
+  </si>
+  <si>
+    <t>splash2</t>
+  </si>
+  <si>
+    <t>splash2x</t>
   </si>
 </sst>
 </file>
@@ -464,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -478,7 +547,7 @@
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="73.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -486,6 +555,12 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -525,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="str">
-        <f t="shared" ref="I3:I21" si="0">CONCATENATE(D3," -p ", B3," -i ",C3, "  &gt;  ",E3,F3,A3,"-",B3,"-",C3,".txt")</f>
+        <f>CONCATENATE(D3," -p ", B3," -i ",C3, "  &gt;  ",E3,F3,A3,"-",B3,"-",C3,".txt")</f>
         <v>parsecmgmt -a run -p blackscholes -i simdev  &gt;  result/exec-002-blackscholes-simdev.txt</v>
       </c>
     </row>
@@ -546,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D4," -p ", B4," -i ",C4, "  &gt;  ",E4,F4,A4,"-",B4,"-",C4,".txt")</f>
         <v>parsecmgmt -a run -p blackscholes -i simsmall  &gt;  result/exec-003-blackscholes-simsmall.txt</v>
       </c>
     </row>
@@ -567,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D5," -p ", B5," -i ",C5, "  &gt;  ",E5,F5,A5,"-",B5,"-",C5,".txt")</f>
         <v>parsecmgmt -a run -p blackscholes -i simlarge  &gt;  result/exec-004-blackscholes-simlarge.txt</v>
       </c>
     </row>
@@ -588,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D6," -p ", B6," -i ",C6, "  &gt;  ",E6,F6,A6,"-",B6,"-",C6,".txt")</f>
         <v>parsecmgmt -a run -p blackscholes -i native  &gt;  result/exec-005-blackscholes-native.txt</v>
       </c>
     </row>
@@ -609,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D7," -p ", B7," -i ",C7, "  &gt;  ",E7,F7,A7,"-",B7,"-",C7,".txt")</f>
         <v>parsecmgmt -a run -p vips -i test  &gt;  result/exec-006-vips-test.txt</v>
       </c>
     </row>
@@ -630,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D8," -p ", B8," -i ",C8, "  &gt;  ",E8,F8,A8,"-",B8,"-",C8,".txt")</f>
         <v>parsecmgmt -a run -p vips -i simdev  &gt;  result/exec-007-vips-simdev.txt</v>
       </c>
     </row>
@@ -672,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D10," -p ", B10," -i ",C10, "  &gt;  ",E10,F10,A10,"-",B10,"-",C10,".txt")</f>
         <v>parsecmgmt -a run -p vips -i simlarge  &gt;  result/exec-009-vips-simlarge.txt</v>
       </c>
     </row>
@@ -693,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(D11," -p ", B11," -i ",C11, "  &gt;  ",E11,F11,A11,"-",B11,"-",C11,".txt")</f>
         <v>parsecmgmt -a run -p vips -i native  &gt;  result/exec-010-vips-native.txt</v>
       </c>
     </row>
@@ -701,6 +776,12 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
@@ -708,14 +789,20 @@
         <v>9</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-011--.txt</v>
+        <f>CONCATENATE(D12," -p ", B12," -i ",C12, "  &gt;  ",E12,F12,A12,"-",B12,"-",C12,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i test  &gt;  result/exec-011-bodytrack-test.txt</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
@@ -723,14 +810,20 @@
         <v>9</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-012--.txt</v>
+        <f>CONCATENATE(D13," -p ", B13," -i ",C13, "  &gt;  ",E13,F13,A13,"-",B13,"-",C13,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i simdev  &gt;  result/exec-012-bodytrack-simdev.txt</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
@@ -738,14 +831,20 @@
         <v>9</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-013--.txt</v>
+        <f>CONCATENATE(D14," -p ", B14," -i ",C14, "  &gt;  ",E14,F14,A14,"-",B14,"-",C14,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i simsmall  &gt;  result/exec-013-bodytrack-simsmall.txt</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
@@ -753,14 +852,20 @@
         <v>9</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-014--.txt</v>
+        <f>CONCATENATE(D15," -p ", B15," -i ",C15, "  &gt;  ",E15,F15,A15,"-",B15,"-",C15,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i simlarge  &gt;  result/exec-014-bodytrack-simlarge.txt</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="4" t="s">
         <v>3</v>
       </c>
@@ -768,14 +873,20 @@
         <v>9</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-015--.txt</v>
+        <f>CONCATENATE(D16," -p ", B16," -i ",C16, "  &gt;  ",E16,F16,A16,"-",B16,"-",C16,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native  &gt;  result/exec-015-bodytrack-native.txt</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
@@ -783,14 +894,20 @@
         <v>9</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-016--.txt</v>
+        <f>CONCATENATE(D17," -p ", B17," -i ",C17, "  &gt;  ",E17,F17,A17,"-",B17,"-",C17,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i test  &gt;  result/exec-016-fluidanimate-test.txt</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
@@ -798,14 +915,20 @@
         <v>9</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-017--.txt</v>
+        <f>CONCATENATE(D18," -p ", B18," -i ",C18, "  &gt;  ",E18,F18,A18,"-",B18,"-",C18,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i simdev  &gt;  result/exec-017-fluidanimate-simdev.txt</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
@@ -813,14 +936,20 @@
         <v>9</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-018--.txt</v>
+        <f>CONCATENATE(D19," -p ", B19," -i ",C19, "  &gt;  ",E19,F19,A19,"-",B19,"-",C19,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i simsmall  &gt;  result/exec-018-fluidanimate-simsmall.txt</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
@@ -828,14 +957,20 @@
         <v>9</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-019--.txt</v>
+        <f>CONCATENATE(D20," -p ", B20," -i ",C20, "  &gt;  ",E20,F20,A20,"-",B20,"-",C20,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i simlarge  &gt;  result/exec-019-fluidanimate-simlarge.txt</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D21" s="4" t="s">
         <v>3</v>
       </c>
@@ -843,8 +978,328 @@
         <v>9</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>parsecmgmt -a run -p  -i   &gt;  result/exec-020--.txt</v>
+        <f>CONCATENATE(D21," -p ", B21," -i ",C21, "  &gt;  ",E21,F21,A21,"-",B21,"-",C21,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native  &gt;  result/exec-020-fluidanimate-native.txt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>CONCATENATE(D22," -p ", B22," -i ",C22, "  &gt;  ",E22,F22,A22,"-",B22,"-",C22,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i test  &gt;  result/exec-021-freqmine-test.txt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>CONCATENATE(D23," -p ", B23," -i ",C23, "  &gt;  ",E23,F23,A23,"-",B23,"-",C23,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i simdev  &gt;  result/exec-022-freqmine-simdev.txt</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f>CONCATENATE(D24," -p ", B24," -i ",C24, "  &gt;  ",E24,F24,A24,"-",B24,"-",C24,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i simsmall  &gt;  result/exec-023-freqmine-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>CONCATENATE(D25," -p ", B25," -i ",C25, "  &gt;  ",E25,F25,A25,"-",B25,"-",C25,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i simlarge  &gt;  result/exec-024-freqmine-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>CONCATENATE(D26," -p ", B26," -i ",C26, "  &gt;  ",E26,F26,A26,"-",B26,"-",C26,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native  &gt;  result/exec-025-freqmine-native.txt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>CONCATENATE(D27," -p ", B27," -i ",C27, "  &gt;  ",E27,F27,A27,"-",B27,"-",C27,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i test  &gt;  result/exec-026-splash2-test.txt</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>CONCATENATE(D28," -p ", B28," -i ",C28, "  &gt;  ",E28,F28,A28,"-",B28,"-",C28,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i simdev  &gt;  result/exec-027-splash2-simdev.txt</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>CONCATENATE(D29," -p ", B29," -i ",C29, "  &gt;  ",E29,F29,A29,"-",B29,"-",C29,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i simsmall  &gt;  result/exec-028-splash2-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>CONCATENATE(D30," -p ", B30," -i ",C30, "  &gt;  ",E30,F30,A30,"-",B30,"-",C30,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i simlarge  &gt;  result/exec-029-splash2-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>CONCATENATE(D31," -p ", B31," -i ",C31, "  &gt;  ",E31,F31,A31,"-",B31,"-",C31,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native  &gt;  result/exec-030-splash2-native.txt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f>CONCATENATE(D32," -p ", B32," -i ",C32, "  &gt;  ",E32,F32,A32,"-",B32,"-",C32,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i test  &gt;  result/exec-031-splash2x-test.txt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f>CONCATENATE(D33," -p ", B33," -i ",C33, "  &gt;  ",E33,F33,A33,"-",B33,"-",C33,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i simdev  &gt;  result/exec-032-splash2x-simdev.txt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f>CONCATENATE(D34," -p ", B34," -i ",C34, "  &gt;  ",E34,F34,A34,"-",B34,"-",C34,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i simsmall  &gt;  result/exec-033-splash2x-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>CONCATENATE(D35," -p ", B35," -i ",C35, "  &gt;  ",E35,F35,A35,"-",B35,"-",C35,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i simlarge  &gt;  result/exec-034-splash2x-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>CONCATENATE(D36," -p ", B36," -i ",C36, "  &gt;  ",E36,F36,A36,"-",B36,"-",C36,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native  &gt;  result/exec-035-splash2x-native.txt</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/parsec/Parsec - Apoio.xlsx
+++ b/parsec/Parsec - Apoio.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="all inputs" sheetId="1" r:id="rId1"/>
+    <sheet name="paralellism" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -43,9 +44,6 @@
     <t>native</t>
   </si>
   <si>
-    <t>result/exec-</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -173,6 +171,105 @@
   </si>
   <si>
     <t>splash2x</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>results/exec-</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
   </si>
 </sst>
 </file>
@@ -215,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +324,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -533,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:I36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -545,26 +645,27 @@
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="79.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="79.85546875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -575,17 +676,18 @@
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>CONCATENATE(D2," -p ", B2," -i ",C2, "  &gt;  ",E2,F2,A2,"-",B2,"-",C2,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i test  &gt;  result/exec-001-blackscholes-test.txt</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>CONCATENATE(D2," -p ", B2," -i ",C2, "  &gt;  ",F2,G2,A2,"-",B2,"-",C2,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i test  &gt;  results/exec-001-blackscholes-test.txt</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -596,17 +698,18 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>CONCATENATE(D3," -p ", B3," -i ",C3, "  &gt;  ",E3,F3,A3,"-",B3,"-",C3,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i simdev  &gt;  result/exec-002-blackscholes-simdev.txt</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J36" si="0">CONCATENATE(D3," -p ", B3," -i ",C3, "  &gt;  ",F3,G3,A3,"-",B3,"-",C3,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i simdev  &gt;  results/exec-002-blackscholes-simdev.txt</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -617,17 +720,18 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>CONCATENATE(D4," -p ", B4," -i ",C4, "  &gt;  ",E4,F4,A4,"-",B4,"-",C4,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i simsmall  &gt;  result/exec-003-blackscholes-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p blackscholes -i simsmall  &gt;  results/exec-003-blackscholes-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
@@ -638,17 +742,18 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>CONCATENATE(D5," -p ", B5," -i ",C5, "  &gt;  ",E5,F5,A5,"-",B5,"-",C5,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i simlarge  &gt;  result/exec-004-blackscholes-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p blackscholes -i simlarge  &gt;  results/exec-004-blackscholes-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
@@ -659,17 +764,18 @@
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f>CONCATENATE(D6," -p ", B6," -i ",C6, "  &gt;  ",E6,F6,A6,"-",B6,"-",C6,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i native  &gt;  result/exec-005-blackscholes-native.txt</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p blackscholes -i native  &gt;  results/exec-005-blackscholes-native.txt</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>2</v>
@@ -680,17 +786,18 @@
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>CONCATENATE(D7," -p ", B7," -i ",C7, "  &gt;  ",E7,F7,A7,"-",B7,"-",C7,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i test  &gt;  result/exec-006-vips-test.txt</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p vips -i test  &gt;  results/exec-006-vips-test.txt</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
@@ -701,17 +808,18 @@
       <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f>CONCATENATE(D8," -p ", B8," -i ",C8, "  &gt;  ",E8,F8,A8,"-",B8,"-",C8,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i simdev  &gt;  result/exec-007-vips-simdev.txt</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p vips -i simdev  &gt;  results/exec-007-vips-simdev.txt</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
@@ -722,17 +830,18 @@
       <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>CONCATENATE(D9," -p ", B9," -i ",C9, "  &gt;  ",E9,F9,A9,"-",B9,"-",C9,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i simsmall  &gt;  result/exec-008-vips-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p vips -i simsmall  &gt;  results/exec-008-vips-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
@@ -743,17 +852,18 @@
       <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f>CONCATENATE(D10," -p ", B10," -i ",C10, "  &gt;  ",E10,F10,A10,"-",B10,"-",C10,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i simlarge  &gt;  result/exec-009-vips-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p vips -i simlarge  &gt;  results/exec-009-vips-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>2</v>
@@ -764,20 +874,21 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f>CONCATENATE(D11," -p ", B11," -i ",C11, "  &gt;  ",E11,F11,A11,"-",B11,"-",C11,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i native  &gt;  result/exec-010-vips-native.txt</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p vips -i native  &gt;  results/exec-010-vips-native.txt</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>4</v>
@@ -785,20 +896,21 @@
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>CONCATENATE(D12," -p ", B12," -i ",C12, "  &gt;  ",E12,F12,A12,"-",B12,"-",C12,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i test  &gt;  result/exec-011-bodytrack-test.txt</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p bodytrack -i test  &gt;  results/exec-011-bodytrack-test.txt</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -806,20 +918,21 @@
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f>CONCATENATE(D13," -p ", B13," -i ",C13, "  &gt;  ",E13,F13,A13,"-",B13,"-",C13,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i simdev  &gt;  result/exec-012-bodytrack-simdev.txt</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p bodytrack -i simdev  &gt;  results/exec-012-bodytrack-simdev.txt</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -827,20 +940,21 @@
       <c r="D14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f>CONCATENATE(D14," -p ", B14," -i ",C14, "  &gt;  ",E14,F14,A14,"-",B14,"-",C14,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i simsmall  &gt;  result/exec-013-bodytrack-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p bodytrack -i simsmall  &gt;  results/exec-013-bodytrack-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
@@ -848,41 +962,43 @@
       <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="2" t="str">
-        <f>CONCATENATE(D15," -p ", B15," -i ",C15, "  &gt;  ",E15,F15,A15,"-",B15,"-",C15,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i simlarge  &gt;  result/exec-014-bodytrack-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p bodytrack -i simlarge  &gt;  results/exec-014-bodytrack-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p bodytrack -i native  &gt;  results/exec-015-bodytrack-native.txt</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2" t="str">
-        <f>CONCATENATE(D16," -p ", B16," -i ",C16, "  &gt;  ",E16,F16,A16,"-",B16,"-",C16,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i native  &gt;  result/exec-015-bodytrack-native.txt</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>4</v>
@@ -890,20 +1006,21 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="2" t="str">
-        <f>CONCATENATE(D17," -p ", B17," -i ",C17, "  &gt;  ",E17,F17,A17,"-",B17,"-",C17,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i test  &gt;  result/exec-016-fluidanimate-test.txt</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p fluidanimate -i test  &gt;  results/exec-016-fluidanimate-test.txt</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -911,20 +1028,21 @@
       <c r="D18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f>CONCATENATE(D18," -p ", B18," -i ",C18, "  &gt;  ",E18,F18,A18,"-",B18,"-",C18,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i simdev  &gt;  result/exec-017-fluidanimate-simdev.txt</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p fluidanimate -i simdev  &gt;  results/exec-017-fluidanimate-simdev.txt</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -932,20 +1050,21 @@
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f>CONCATENATE(D19," -p ", B19," -i ",C19, "  &gt;  ",E19,F19,A19,"-",B19,"-",C19,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i simsmall  &gt;  result/exec-018-fluidanimate-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="4"/>
+      <c r="F19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p fluidanimate -i simsmall  &gt;  results/exec-018-fluidanimate-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -953,41 +1072,43 @@
       <c r="D20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="2" t="str">
-        <f>CONCATENATE(D20," -p ", B20," -i ",C20, "  &gt;  ",E20,F20,A20,"-",B20,"-",C20,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i simlarge  &gt;  result/exec-019-fluidanimate-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="4"/>
+      <c r="F20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p fluidanimate -i simlarge  &gt;  results/exec-019-fluidanimate-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p fluidanimate -i native  &gt;  results/exec-020-fluidanimate-native.txt</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="2" t="str">
-        <f>CONCATENATE(D21," -p ", B21," -i ",C21, "  &gt;  ",E21,F21,A21,"-",B21,"-",C21,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i native  &gt;  result/exec-020-fluidanimate-native.txt</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -995,20 +1116,21 @@
       <c r="D22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="2" t="str">
-        <f>CONCATENATE(D22," -p ", B22," -i ",C22, "  &gt;  ",E22,F22,A22,"-",B22,"-",C22,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i test  &gt;  result/exec-021-freqmine-test.txt</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p freqmine -i test  &gt;  results/exec-021-freqmine-test.txt</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -1016,20 +1138,21 @@
       <c r="D23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="2" t="str">
-        <f>CONCATENATE(D23," -p ", B23," -i ",C23, "  &gt;  ",E23,F23,A23,"-",B23,"-",C23,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i simdev  &gt;  result/exec-022-freqmine-simdev.txt</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p freqmine -i simdev  &gt;  results/exec-022-freqmine-simdev.txt</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -1037,20 +1160,21 @@
       <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="2" t="str">
-        <f>CONCATENATE(D24," -p ", B24," -i ",C24, "  &gt;  ",E24,F24,A24,"-",B24,"-",C24,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i simsmall  &gt;  result/exec-023-freqmine-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p freqmine -i simsmall  &gt;  results/exec-023-freqmine-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -1058,41 +1182,43 @@
       <c r="D25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="2" t="str">
-        <f>CONCATENATE(D25," -p ", B25," -i ",C25, "  &gt;  ",E25,F25,A25,"-",B25,"-",C25,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i simlarge  &gt;  result/exec-024-freqmine-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p freqmine -i simlarge  &gt;  results/exec-024-freqmine-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p freqmine -i native  &gt;  results/exec-025-freqmine-native.txt</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f>CONCATENATE(D26," -p ", B26," -i ",C26, "  &gt;  ",E26,F26,A26,"-",B26,"-",C26,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i native  &gt;  result/exec-025-freqmine-native.txt</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -1100,20 +1226,21 @@
       <c r="D27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="2" t="str">
-        <f>CONCATENATE(D27," -p ", B27," -i ",C27, "  &gt;  ",E27,F27,A27,"-",B27,"-",C27,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i test  &gt;  result/exec-026-splash2-test.txt</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2 -i test  &gt;  results/exec-026-splash2-test.txt</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -1121,20 +1248,21 @@
       <c r="D28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="2" t="str">
-        <f>CONCATENATE(D28," -p ", B28," -i ",C28, "  &gt;  ",E28,F28,A28,"-",B28,"-",C28,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i simdev  &gt;  result/exec-027-splash2-simdev.txt</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2 -i simdev  &gt;  results/exec-027-splash2-simdev.txt</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>6</v>
@@ -1142,20 +1270,21 @@
       <c r="D29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="2" t="str">
-        <f>CONCATENATE(D29," -p ", B29," -i ",C29, "  &gt;  ",E29,F29,A29,"-",B29,"-",C29,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i simsmall  &gt;  result/exec-028-splash2-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2 -i simsmall  &gt;  results/exec-028-splash2-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>7</v>
@@ -1163,41 +1292,43 @@
       <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="2" t="str">
-        <f>CONCATENATE(D30," -p ", B30," -i ",C30, "  &gt;  ",E30,F30,A30,"-",B30,"-",C30,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i simlarge  &gt;  result/exec-029-splash2-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2 -i simlarge  &gt;  results/exec-029-splash2-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2 -i native  &gt;  results/exec-030-splash2-native.txt</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="2" t="str">
-        <f>CONCATENATE(D31," -p ", B31," -i ",C31, "  &gt;  ",E31,F31,A31,"-",B31,"-",C31,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i native  &gt;  result/exec-030-splash2-native.txt</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
@@ -1205,20 +1336,21 @@
       <c r="D32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="2" t="str">
-        <f>CONCATENATE(D32," -p ", B32," -i ",C32, "  &gt;  ",E32,F32,A32,"-",B32,"-",C32,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i test  &gt;  result/exec-031-splash2x-test.txt</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2x -i test  &gt;  results/exec-031-splash2x-test.txt</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>5</v>
@@ -1226,20 +1358,21 @@
       <c r="D33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2" t="str">
-        <f>CONCATENATE(D33," -p ", B33," -i ",C33, "  &gt;  ",E33,F33,A33,"-",B33,"-",C33,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i simdev  &gt;  result/exec-032-splash2x-simdev.txt</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="4"/>
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2x -i simdev  &gt;  results/exec-032-splash2x-simdev.txt</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>6</v>
@@ -1247,20 +1380,21 @@
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f>CONCATENATE(D34," -p ", B34," -i ",C34, "  &gt;  ",E34,F34,A34,"-",B34,"-",C34,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i simsmall  &gt;  result/exec-033-splash2x-simsmall.txt</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="4"/>
+      <c r="F34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2x -i simsmall  &gt;  results/exec-033-splash2x-simsmall.txt</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>7</v>
@@ -1268,42 +1402,749 @@
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="2" t="str">
-        <f>CONCATENATE(D35," -p ", B35," -i ",C35, "  &gt;  ",E35,F35,A35,"-",B35,"-",C35,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i simlarge  &gt;  result/exec-034-splash2x-simlarge.txt</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+      <c r="F35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2x -i simlarge  &gt;  results/exec-034-splash2x-simlarge.txt</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>parsecmgmt -a run -p splash2x -i native  &gt;  results/exec-035-splash2x-native.txt</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="J38" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>CONCATENATE(D40," -p ", B40," -i ",C40, " -n ", E40, "  &gt;  ",F40,A40,"-",B40,"-",C40,"-n",E40,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 2  &gt;  results/exec-051-blackscholes-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>CONCATENATE(D41," -p ", B41," -i ",C41, " -n ", E41, "  &gt;  ",F41,G41,A41,"-",B41,"-",C41,"-n",E41,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 4  &gt;  results/exec-052-blackscholes-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>CONCATENATE(D42," -p ", B42," -i ",C42, " -n ", E42, "  &gt;  ",F42,G42,A42,"-",B42,"-",C42,"-n",E42,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 8  &gt;  results/exec-053-blackscholes-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f>CONCATENATE(D43," -p ", B43," -i ",C43, " -n ", E43, "  &gt;  ",F43,G43,A43,"-",B43,"-",C43,"-n",E43,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 16  &gt;  results/exec-054-blackscholes-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f>CONCATENATE(D44," -p ", B44," -i ",C44, " -n ", E44, "  &gt;  ",F44,A44,"-",B44,"-",C44,"-n",E44,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 2  &gt;  results/exec-055-vips-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>CONCATENATE(D45," -p ", B45," -i ",C45, " -n ", E45, "  &gt;  ",F45,G45,A45,"-",B45,"-",C45,"-n",E45,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 4  &gt;  results/exec-056-vips-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>CONCATENATE(D46," -p ", B46," -i ",C46, " -n ", E46, "  &gt;  ",F46,G46,A46,"-",B46,"-",C46,"-n",E46,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 8  &gt;  results/exec-057-vips-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>CONCATENATE(D47," -p ", B47," -i ",C47, " -n ", E47, "  &gt;  ",F47,G47,A47,"-",B47,"-",C47,"-n",E47,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 16  &gt;  results/exec-058-vips-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f>CONCATENATE(D48," -p ", B48," -i ",C48, " -n ", E48, "  &gt;  ",F48,A48,"-",B48,"-",C48,"-n",E48,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 2  &gt;  results/exec-059-bodytrack-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>CONCATENATE(D49," -p ", B49," -i ",C49, " -n ", E49, "  &gt;  ",F49,G49,A49,"-",B49,"-",C49,"-n",E49,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 4  &gt;  results/exec-060-bodytrack-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f>CONCATENATE(D50," -p ", B50," -i ",C50, " -n ", E50, "  &gt;  ",F50,G50,A50,"-",B50,"-",C50,"-n",E50,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 8  &gt;  results/exec-061-bodytrack-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f>CONCATENATE(D51," -p ", B51," -i ",C51, " -n ", E51, "  &gt;  ",F51,G51,A51,"-",B51,"-",C51,"-n",E51,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 16  &gt;  results/exec-062-bodytrack-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="2" t="str">
-        <f>CONCATENATE(D36," -p ", B36," -i ",C36, "  &gt;  ",E36,F36,A36,"-",B36,"-",C36,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i native  &gt;  result/exec-035-splash2x-native.txt</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="2" t="s">
-        <v>30</v>
+      <c r="C52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f>CONCATENATE(D52," -p ", B52," -i ",C52, " -n ", E52, "  &gt;  ",F52,A52,"-",B52,"-",C52,"-n",E52,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 2  &gt;  results/exec-063-fluidanimate-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f>CONCATENATE(D53," -p ", B53," -i ",C53, " -n ", E53, "  &gt;  ",F53,G53,A53,"-",B53,"-",C53,"-n",E53,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 4  &gt;  results/exec-064-fluidanimate-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f>CONCATENATE(D54," -p ", B54," -i ",C54, " -n ", E54, "  &gt;  ",F54,G54,A54,"-",B54,"-",C54,"-n",E54,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 8  &gt;  results/exec-065-fluidanimate-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f>CONCATENATE(D55," -p ", B55," -i ",C55, " -n ", E55, "  &gt;  ",F55,G55,A55,"-",B55,"-",C55,"-n",E55,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 16  &gt;  results/exec-066-fluidanimate-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f>CONCATENATE(D56," -p ", B56," -i ",C56, " -n ", E56, "  &gt;  ",F56,A56,"-",B56,"-",C56,"-n",E56,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 2  &gt;  results/exec-067-freqmine-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f>CONCATENATE(D57," -p ", B57," -i ",C57, " -n ", E57, "  &gt;  ",F57,G57,A57,"-",B57,"-",C57,"-n",E57,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 4  &gt;  results/exec-068-freqmine-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f>CONCATENATE(D58," -p ", B58," -i ",C58, " -n ", E58, "  &gt;  ",F58,G58,A58,"-",B58,"-",C58,"-n",E58,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 8  &gt;  results/exec-069-freqmine-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f>CONCATENATE(D59," -p ", B59," -i ",C59, " -n ", E59, "  &gt;  ",F59,G59,A59,"-",B59,"-",C59,"-n",E59,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 16  &gt;  results/exec-070-freqmine-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f>CONCATENATE(D60," -p ", B60," -i ",C60, " -n ", E60, "  &gt;  ",F60,A60,"-",B60,"-",C60,"-n",E60,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 2  &gt;  results/exec-071-splash2-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f>CONCATENATE(D61," -p ", B61," -i ",C61, " -n ", E61, "  &gt;  ",F61,G61,A61,"-",B61,"-",C61,"-n",E61,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 4  &gt;  results/exec-072-splash2-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f>CONCATENATE(D62," -p ", B62," -i ",C62, " -n ", E62, "  &gt;  ",F62,G62,A62,"-",B62,"-",C62,"-n",E62,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 8  &gt;  results/exec-073-splash2-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f>CONCATENATE(D63," -p ", B63," -i ",C63, " -n ", E63, "  &gt;  ",F63,G63,A63,"-",B63,"-",C63,"-n",E63,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 16  &gt;  results/exec-074-splash2-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f>CONCATENATE(D64," -p ", B64," -i ",C64, " -n ", E64, "  &gt;  ",F64,A64,"-",B64,"-",C64,"-n",E64,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 2  &gt;  results/exec-075-splash2x-native-n2.txt</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f>CONCATENATE(D65," -p ", B65," -i ",C65, " -n ", E65, "  &gt;  ",F65,G65,A65,"-",B65,"-",C65,"-n",E65,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 4  &gt;  results/exec-076-splash2x-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f>CONCATENATE(D66," -p ", B66," -i ",C66, " -n ", E66, "  &gt;  ",F66,G66,A66,"-",B66,"-",C66,"-n",E66,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 8  &gt;  results/exec-077-splash2x-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f>CONCATENATE(D67," -p ", B67," -i ",C67, " -n ", E67, "  &gt;  ",F67,G67,A67,"-",B67,"-",C67,"-n",E67,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 16  &gt;  results/exec-078-splash2x-native-n16.txt</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.140625" style="2"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/parsec/Parsec - Apoio.xlsx
+++ b/parsec/Parsec - Apoio.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="all inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="paralellism" sheetId="2" r:id="rId2"/>
+    <sheet name="evaluation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -173,103 +173,130 @@
     <t>splash2x</t>
   </si>
   <si>
-    <t>051</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>052</t>
-  </si>
-  <si>
-    <t>053</t>
-  </si>
-  <si>
-    <t>054</t>
-  </si>
-  <si>
-    <t>055</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>results/exec-</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>results/parsec-result-</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
-    <t>results/exec-</t>
-  </si>
-  <si>
-    <t>056</t>
-  </si>
-  <si>
-    <t>057</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>059</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>061</t>
-  </si>
-  <si>
-    <t>062</t>
-  </si>
-  <si>
-    <t>063</t>
-  </si>
-  <si>
-    <t>064</t>
-  </si>
-  <si>
-    <t>065</t>
-  </si>
-  <si>
-    <t>066</t>
-  </si>
-  <si>
-    <t>067</t>
-  </si>
-  <si>
-    <t>068</t>
-  </si>
-  <si>
-    <t>069</t>
-  </si>
-  <si>
-    <t>070</t>
-  </si>
-  <si>
-    <t>071</t>
-  </si>
-  <si>
-    <t>072</t>
-  </si>
-  <si>
-    <t>073</t>
-  </si>
-  <si>
-    <t>074</t>
-  </si>
-  <si>
-    <t>075</t>
-  </si>
-  <si>
-    <t>076</t>
-  </si>
-  <si>
-    <t>077</t>
-  </si>
-  <si>
-    <t>078</t>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
   </si>
 </sst>
 </file>
@@ -633,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -646,9 +673,9 @@
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="79.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="87.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -678,7 +705,7 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>CONCATENATE(D2," -p ", B2," -i ",C2, "  &gt;  ",F2,G2,A2,"-",B2,"-",C2,".txt")</f>
@@ -700,7 +727,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="str">
         <f t="shared" ref="J3:J36" si="0">CONCATENATE(D3," -p ", B3," -i ",C3, "  &gt;  ",F3,G3,A3,"-",B3,"-",C3,".txt")</f>
@@ -722,7 +749,7 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -744,7 +771,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -766,7 +793,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -788,7 +815,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -810,7 +837,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -832,7 +859,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -854,7 +881,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -876,7 +903,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -898,7 +925,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -920,7 +947,7 @@
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -942,7 +969,7 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -964,7 +991,7 @@
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -986,7 +1013,7 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1008,7 +1035,7 @@
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1030,7 +1057,7 @@
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1052,7 +1079,7 @@
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1074,7 +1101,7 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1096,7 +1123,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1118,7 +1145,7 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1140,7 +1167,7 @@
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1162,7 +1189,7 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1184,7 +1211,7 @@
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1206,7 +1233,7 @@
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1228,7 +1255,7 @@
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1250,7 +1277,7 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1272,7 +1299,7 @@
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1321,7 @@
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1316,7 +1343,7 @@
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1338,7 +1365,7 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1360,7 +1387,7 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1382,7 +1409,7 @@
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1431,7 @@
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1453,7 @@
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1452,32 +1479,13 @@
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J40" s="2" t="str">
-        <f>CONCATENATE(D40," -p ", B40," -i ",C40, " -n ", E40, "  &gt;  ",F40,A40,"-",B40,"-",C40,"-n",E40,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i native -n 2  &gt;  results/exec-051-blackscholes-native-n2.txt</v>
-      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
@@ -1489,19 +1497,19 @@
         <v>3</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J41" s="2" t="str">
-        <f>CONCATENATE(D41," -p ", B41," -i ",C41, " -n ", E41, "  &gt;  ",F41,G41,A41,"-",B41,"-",C41,"-n",E41,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i native -n 4  &gt;  results/exec-052-blackscholes-native-n4.txt</v>
+        <f>CONCATENATE(D41," -p ", B41," -i ",C41, " -n ", E41, "  &gt;  ",F41,A41,"-",B41,"-",C41,"-n",E41,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 1  &gt;  results/parsec-result-101-blackscholes-native-n1.txt</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>1</v>
@@ -1513,19 +1521,19 @@
         <v>3</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>CONCATENATE(D42," -p ", B42," -i ",C42, " -n ", E42, "  &gt;  ",F42,G42,A42,"-",B42,"-",C42,"-n",E42,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i native -n 8  &gt;  results/exec-053-blackscholes-native-n8.txt</v>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 2  &gt;  results/parsec-result-102-blackscholes-native-n2.txt</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>1</v>
@@ -1537,22 +1545,22 @@
         <v>3</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>CONCATENATE(D43," -p ", B43," -i ",C43, " -n ", E43, "  &gt;  ",F43,G43,A43,"-",B43,"-",C43,"-n",E43,".txt")</f>
-        <v>parsecmgmt -a run -p blackscholes -i native -n 16  &gt;  results/exec-054-blackscholes-native-n16.txt</v>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 4  &gt;  results/parsec-result-103-blackscholes-native-n4.txt</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>8</v>
@@ -1561,19 +1569,19 @@
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f>CONCATENATE(D44," -p ", B44," -i ",C44, " -n ", E44, "  &gt;  ",F44,A44,"-",B44,"-",C44,"-n",E44,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i native -n 2  &gt;  results/exec-055-vips-native-n2.txt</v>
+        <f>CONCATENATE(D44," -p ", B44," -i ",C44, " -n ", E44, "  &gt;  ",F44,G44,A44,"-",B44,"-",C44,"-n",E44,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 8  &gt;  results/parsec-result-104-blackscholes-native-n8.txt</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>2</v>
@@ -1585,19 +1593,19 @@
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f>CONCATENATE(D45," -p ", B45," -i ",C45, " -n ", E45, "  &gt;  ",F45,G45,A45,"-",B45,"-",C45,"-n",E45,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i native -n 4  &gt;  results/exec-056-vips-native-n4.txt</v>
+        <f>CONCATENATE(D45," -p ", B45," -i ",C45, " -n ", E45, "  &gt;  ",F45,A45,"-",B45,"-",C45,"-n",E45,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 1  &gt;  results/parsec-result-105-vips-native-n1.txt</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>2</v>
@@ -1609,19 +1617,19 @@
         <v>3</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J46" s="2" t="str">
         <f>CONCATENATE(D46," -p ", B46," -i ",C46, " -n ", E46, "  &gt;  ",F46,G46,A46,"-",B46,"-",C46,"-n",E46,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i native -n 8  &gt;  results/exec-057-vips-native-n8.txt</v>
+        <v>parsecmgmt -a run -p vips -i native -n 2  &gt;  results/parsec-result-106-vips-native-n2.txt</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>2</v>
@@ -1633,22 +1641,22 @@
         <v>3</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J47" s="2" t="str">
         <f>CONCATENATE(D47," -p ", B47," -i ",C47, " -n ", E47, "  &gt;  ",F47,G47,A47,"-",B47,"-",C47,"-n",E47,".txt")</f>
-        <v>parsecmgmt -a run -p vips -i native -n 16  &gt;  results/exec-058-vips-native-n16.txt</v>
+        <v>parsecmgmt -a run -p vips -i native -n 4  &gt;  results/parsec-result-107-vips-native-n4.txt</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>8</v>
@@ -1657,19 +1665,19 @@
         <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J48" s="2" t="str">
-        <f>CONCATENATE(D48," -p ", B48," -i ",C48, " -n ", E48, "  &gt;  ",F48,A48,"-",B48,"-",C48,"-n",E48,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i native -n 2  &gt;  results/exec-059-bodytrack-native-n2.txt</v>
+        <f>CONCATENATE(D48," -p ", B48," -i ",C48, " -n ", E48, "  &gt;  ",F48,G48,A48,"-",B48,"-",C48,"-n",E48,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 8  &gt;  results/parsec-result-108-vips-native-n8.txt</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>30</v>
@@ -1681,19 +1689,19 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J49" s="2" t="str">
-        <f>CONCATENATE(D49," -p ", B49," -i ",C49, " -n ", E49, "  &gt;  ",F49,G49,A49,"-",B49,"-",C49,"-n",E49,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i native -n 4  &gt;  results/exec-060-bodytrack-native-n4.txt</v>
+        <f>CONCATENATE(D49," -p ", B49," -i ",C49, " -n ", E49, "  &gt;  ",F49,A49,"-",B49,"-",C49,"-n",E49,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 1  &gt;  results/parsec-result-109-bodytrack-native-n1.txt</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>30</v>
@@ -1705,19 +1713,19 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J50" s="2" t="str">
         <f>CONCATENATE(D50," -p ", B50," -i ",C50, " -n ", E50, "  &gt;  ",F50,G50,A50,"-",B50,"-",C50,"-n",E50,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i native -n 8  &gt;  results/exec-061-bodytrack-native-n8.txt</v>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 2  &gt;  results/parsec-result-110-bodytrack-native-n2.txt</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>30</v>
@@ -1729,22 +1737,22 @@
         <v>3</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J51" s="2" t="str">
         <f>CONCATENATE(D51," -p ", B51," -i ",C51, " -n ", E51, "  &gt;  ",F51,G51,A51,"-",B51,"-",C51,"-n",E51,".txt")</f>
-        <v>parsecmgmt -a run -p bodytrack -i native -n 16  &gt;  results/exec-062-bodytrack-native-n16.txt</v>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 4  &gt;  results/parsec-result-111-bodytrack-native-n4.txt</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>8</v>
@@ -1753,19 +1761,19 @@
         <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f>CONCATENATE(D52," -p ", B52," -i ",C52, " -n ", E52, "  &gt;  ",F52,A52,"-",B52,"-",C52,"-n",E52,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i native -n 2  &gt;  results/exec-063-fluidanimate-native-n2.txt</v>
+        <f>CONCATENATE(D52," -p ", B52," -i ",C52, " -n ", E52, "  &gt;  ",F52,G52,A52,"-",B52,"-",C52,"-n",E52,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 8  &gt;  results/parsec-result-112-bodytrack-native-n8.txt</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>46</v>
@@ -1777,19 +1785,19 @@
         <v>3</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J53" s="2" t="str">
-        <f>CONCATENATE(D53," -p ", B53," -i ",C53, " -n ", E53, "  &gt;  ",F53,G53,A53,"-",B53,"-",C53,"-n",E53,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i native -n 4  &gt;  results/exec-064-fluidanimate-native-n4.txt</v>
+        <f>CONCATENATE(D53," -p ", B53," -i ",C53, " -n ", E53, "  &gt;  ",F53,A53,"-",B53,"-",C53,"-n",E53,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 1  &gt;  results/parsec-result-113-fluidanimate-native-n1.txt</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>46</v>
@@ -1801,19 +1809,19 @@
         <v>3</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J54" s="2" t="str">
         <f>CONCATENATE(D54," -p ", B54," -i ",C54, " -n ", E54, "  &gt;  ",F54,G54,A54,"-",B54,"-",C54,"-n",E54,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i native -n 8  &gt;  results/exec-065-fluidanimate-native-n8.txt</v>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 2  &gt;  results/parsec-result-114-fluidanimate-native-n2.txt</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>46</v>
@@ -1825,22 +1833,22 @@
         <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J55" s="2" t="str">
         <f>CONCATENATE(D55," -p ", B55," -i ",C55, " -n ", E55, "  &gt;  ",F55,G55,A55,"-",B55,"-",C55,"-n",E55,".txt")</f>
-        <v>parsecmgmt -a run -p fluidanimate -i native -n 16  &gt;  results/exec-066-fluidanimate-native-n16.txt</v>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 4  &gt;  results/parsec-result-115-fluidanimate-native-n4.txt</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>8</v>
@@ -1849,19 +1857,19 @@
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J56" s="2" t="str">
-        <f>CONCATENATE(D56," -p ", B56," -i ",C56, " -n ", E56, "  &gt;  ",F56,A56,"-",B56,"-",C56,"-n",E56,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i native -n 2  &gt;  results/exec-067-freqmine-native-n2.txt</v>
+        <f>CONCATENATE(D56," -p ", B56," -i ",C56, " -n ", E56, "  &gt;  ",F56,G56,A56,"-",B56,"-",C56,"-n",E56,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 8  &gt;  results/parsec-result-116-fluidanimate-native-n8.txt</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>47</v>
@@ -1873,19 +1881,19 @@
         <v>3</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J57" s="2" t="str">
-        <f>CONCATENATE(D57," -p ", B57," -i ",C57, " -n ", E57, "  &gt;  ",F57,G57,A57,"-",B57,"-",C57,"-n",E57,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i native -n 4  &gt;  results/exec-068-freqmine-native-n4.txt</v>
+        <f>CONCATENATE(D57," -p ", B57," -i ",C57, " -n ", E57, "  &gt;  ",F57,A57,"-",B57,"-",C57,"-n",E57,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 1  &gt;  results/parsec-result-117-freqmine-native-n1.txt</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>47</v>
@@ -1897,19 +1905,19 @@
         <v>3</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J58" s="2" t="str">
         <f>CONCATENATE(D58," -p ", B58," -i ",C58, " -n ", E58, "  &gt;  ",F58,G58,A58,"-",B58,"-",C58,"-n",E58,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i native -n 8  &gt;  results/exec-069-freqmine-native-n8.txt</v>
+        <v>parsecmgmt -a run -p freqmine -i native -n 2  &gt;  results/parsec-result-118-freqmine-native-n2.txt</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>47</v>
@@ -1921,22 +1929,22 @@
         <v>3</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J59" s="2" t="str">
         <f>CONCATENATE(D59," -p ", B59," -i ",C59, " -n ", E59, "  &gt;  ",F59,G59,A59,"-",B59,"-",C59,"-n",E59,".txt")</f>
-        <v>parsecmgmt -a run -p freqmine -i native -n 16  &gt;  results/exec-070-freqmine-native-n16.txt</v>
+        <v>parsecmgmt -a run -p freqmine -i native -n 4  &gt;  results/parsec-result-119-freqmine-native-n4.txt</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>8</v>
@@ -1945,19 +1953,19 @@
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f>CONCATENATE(D60," -p ", B60," -i ",C60, " -n ", E60, "  &gt;  ",F60,A60,"-",B60,"-",C60,"-n",E60,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i native -n 2  &gt;  results/exec-071-splash2-native-n2.txt</v>
+        <f>CONCATENATE(D60," -p ", B60," -i ",C60, " -n ", E60, "  &gt;  ",F60,G60,A60,"-",B60,"-",C60,"-n",E60,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 8  &gt;  results/parsec-result-120-freqmine-native-n8.txt</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>50</v>
@@ -1969,19 +1977,19 @@
         <v>3</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f>CONCATENATE(D61," -p ", B61," -i ",C61, " -n ", E61, "  &gt;  ",F61,G61,A61,"-",B61,"-",C61,"-n",E61,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i native -n 4  &gt;  results/exec-072-splash2-native-n4.txt</v>
+        <f>CONCATENATE(D61," -p ", B61," -i ",C61, " -n ", E61, "  &gt;  ",F61,A61,"-",B61,"-",C61,"-n",E61,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 1  &gt;  results/parsec-result-121-splash2-native-n1.txt</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>50</v>
@@ -1993,19 +2001,19 @@
         <v>3</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J62" s="2" t="str">
         <f>CONCATENATE(D62," -p ", B62," -i ",C62, " -n ", E62, "  &gt;  ",F62,G62,A62,"-",B62,"-",C62,"-n",E62,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i native -n 8  &gt;  results/exec-073-splash2-native-n8.txt</v>
+        <v>parsecmgmt -a run -p splash2 -i native -n 2  &gt;  results/parsec-result-122-splash2-native-n2.txt</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>50</v>
@@ -2017,22 +2025,22 @@
         <v>3</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J63" s="2" t="str">
         <f>CONCATENATE(D63," -p ", B63," -i ",C63, " -n ", E63, "  &gt;  ",F63,G63,A63,"-",B63,"-",C63,"-n",E63,".txt")</f>
-        <v>parsecmgmt -a run -p splash2 -i native -n 16  &gt;  results/exec-074-splash2-native-n16.txt</v>
+        <v>parsecmgmt -a run -p splash2 -i native -n 4  &gt;  results/parsec-result-123-splash2-native-n4.txt</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>8</v>
@@ -2041,19 +2049,19 @@
         <v>3</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J64" s="2" t="str">
-        <f>CONCATENATE(D64," -p ", B64," -i ",C64, " -n ", E64, "  &gt;  ",F64,A64,"-",B64,"-",C64,"-n",E64,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i native -n 2  &gt;  results/exec-075-splash2x-native-n2.txt</v>
+        <f>CONCATENATE(D64," -p ", B64," -i ",C64, " -n ", E64, "  &gt;  ",F64,G64,A64,"-",B64,"-",C64,"-n",E64,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 8  &gt;  results/parsec-result-124-splash2-native-n8.txt</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>51</v>
@@ -2065,19 +2073,19 @@
         <v>3</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J65" s="2" t="str">
-        <f>CONCATENATE(D65," -p ", B65," -i ",C65, " -n ", E65, "  &gt;  ",F65,G65,A65,"-",B65,"-",C65,"-n",E65,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i native -n 4  &gt;  results/exec-076-splash2x-native-n4.txt</v>
+        <f>CONCATENATE(D65," -p ", B65," -i ",C65, " -n ", E65, "  &gt;  ",F65,A65,"-",B65,"-",C65,"-n",E65,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 1  &gt;  results/parsec-result-125-splash2x-native-n1.txt</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>51</v>
@@ -2089,19 +2097,19 @@
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J66" s="2" t="str">
         <f>CONCATENATE(D66," -p ", B66," -i ",C66, " -n ", E66, "  &gt;  ",F66,G66,A66,"-",B66,"-",C66,"-n",E66,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i native -n 8  &gt;  results/exec-077-splash2x-native-n8.txt</v>
+        <v>parsecmgmt -a run -p splash2x -i native -n 2  &gt;  results/parsec-result-126-splash2x-native-n2.txt</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>51</v>
@@ -2113,14 +2121,206 @@
         <v>3</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J67" s="2" t="str">
         <f>CONCATENATE(D67," -p ", B67," -i ",C67, " -n ", E67, "  &gt;  ",F67,G67,A67,"-",B67,"-",C67,"-n",E67,".txt")</f>
-        <v>parsecmgmt -a run -p splash2x -i native -n 16  &gt;  results/exec-078-splash2x-native-n16.txt</v>
+        <v>parsecmgmt -a run -p splash2x -i native -n 4  &gt;  results/parsec-result-127-splash2x-native-n4.txt</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f>CONCATENATE(D68," -p ", B68," -i ",C68, " -n ", E68, "  &gt;  ",F68,G68,A68,"-",B68,"-",C68,"-n",E68,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 8  &gt;  results/parsec-result-128-splash2x-native-n8.txt</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <f>CONCATENATE(D70," -p ", B70," -i ",C70, " -n ", E70, "  &gt;  ",F70,G70,A70,"-",B70,"-",C70,"-n",E70,".txt")</f>
+        <v>parsecmgmt -a run -p blackscholes -i native -n 16  &gt;  results/parsec-result-129-blackscholes-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <f>CONCATENATE(D71," -p ", B71," -i ",C71, " -n ", E71, "  &gt;  ",F71,G71,A71,"-",B71,"-",C71,"-n",E71,".txt")</f>
+        <v>parsecmgmt -a run -p vips -i native -n 16  &gt;  results/parsec-result-130-vips-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <f>CONCATENATE(D72," -p ", B72," -i ",C72, " -n ", E72, "  &gt;  ",F72,G72,A72,"-",B72,"-",C72,"-n",E72,".txt")</f>
+        <v>parsecmgmt -a run -p bodytrack -i native -n 16  &gt;  results/parsec-result-131-bodytrack-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <f>CONCATENATE(D73," -p ", B73," -i ",C73, " -n ", E73, "  &gt;  ",F73,G73,A73,"-",B73,"-",C73,"-n",E73,".txt")</f>
+        <v>parsecmgmt -a run -p fluidanimate -i native -n 16  &gt;  results/parsec-result-132-fluidanimate-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <f>CONCATENATE(D74," -p ", B74," -i ",C74, " -n ", E74, "  &gt;  ",F74,G74,A74,"-",B74,"-",C74,"-n",E74,".txt")</f>
+        <v>parsecmgmt -a run -p freqmine -i native -n 16  &gt;  results/parsec-result-133-freqmine-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <f>CONCATENATE(D75," -p ", B75," -i ",C75, " -n ", E75, "  &gt;  ",F75,G75,A75,"-",B75,"-",C75,"-n",E75,".txt")</f>
+        <v>parsecmgmt -a run -p splash2 -i native -n 16  &gt;  results/parsec-result-134-splash2-native-n16.txt</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f>CONCATENATE(D76," -p ", B76," -i ",C76, " -n ", E76, "  &gt;  ",F76,G76,A76,"-",B76,"-",C76,"-n",E76,".txt")</f>
+        <v>parsecmgmt -a run -p splash2x -i native -n 16  &gt;  results/parsec-result-135-splash2x-native-n16.txt</v>
       </c>
     </row>
   </sheetData>
@@ -2131,20 +2331,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A3:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="23.140625" style="3" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.140625" style="2"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+    </row>
+    <row r="11" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+    </row>
+    <row r="12" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+    </row>
+    <row r="15" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+    </row>
+    <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+    </row>
+    <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+    </row>
+    <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+    </row>
+    <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+    </row>
+    <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/parsec/Parsec - Apoio.xlsx
+++ b/parsec/Parsec - Apoio.xlsx
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70:J76"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="J70" s="2" t="str">
-        <f>CONCATENATE(D70," -p ", B70," -i ",C70, " -n ", E70, "  &gt;  ",F70,G70,A70,"-",B70,"-",C70,"-n",E70,".txt")</f>
+        <f t="shared" ref="J70:J76" si="1">CONCATENATE(D70," -p ", B70," -i ",C70, " -n ", E70, "  &gt;  ",F70,G70,A70,"-",B70,"-",C70,"-n",E70,".txt")</f>
         <v>parsecmgmt -a run -p blackscholes -i native -n 16  &gt;  results/parsec-result-129-blackscholes-native-n16.txt</v>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
         <v>85</v>
       </c>
       <c r="J71" s="2" t="str">
-        <f>CONCATENATE(D71," -p ", B71," -i ",C71, " -n ", E71, "  &gt;  ",F71,G71,A71,"-",B71,"-",C71,"-n",E71,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p vips -i native -n 16  &gt;  results/parsec-result-130-vips-native-n16.txt</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <v>85</v>
       </c>
       <c r="J72" s="2" t="str">
-        <f>CONCATENATE(D72," -p ", B72," -i ",C72, " -n ", E72, "  &gt;  ",F72,G72,A72,"-",B72,"-",C72,"-n",E72,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p bodytrack -i native -n 16  &gt;  results/parsec-result-131-bodytrack-native-n16.txt</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
         <v>85</v>
       </c>
       <c r="J73" s="2" t="str">
-        <f>CONCATENATE(D73," -p ", B73," -i ",C73, " -n ", E73, "  &gt;  ",F73,G73,A73,"-",B73,"-",C73,"-n",E73,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p fluidanimate -i native -n 16  &gt;  results/parsec-result-132-fluidanimate-native-n16.txt</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
         <v>85</v>
       </c>
       <c r="J74" s="2" t="str">
-        <f>CONCATENATE(D74," -p ", B74," -i ",C74, " -n ", E74, "  &gt;  ",F74,G74,A74,"-",B74,"-",C74,"-n",E74,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p freqmine -i native -n 16  &gt;  results/parsec-result-133-freqmine-native-n16.txt</v>
       </c>
     </row>
@@ -2295,7 +2295,7 @@
         <v>85</v>
       </c>
       <c r="J75" s="2" t="str">
-        <f>CONCATENATE(D75," -p ", B75," -i ",C75, " -n ", E75, "  &gt;  ",F75,G75,A75,"-",B75,"-",C75,"-n",E75,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p splash2 -i native -n 16  &gt;  results/parsec-result-134-splash2-native-n16.txt</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
         <v>85</v>
       </c>
       <c r="J76" s="2" t="str">
-        <f>CONCATENATE(D76," -p ", B76," -i ",C76, " -n ", E76, "  &gt;  ",F76,G76,A76,"-",B76,"-",C76,"-n",E76,".txt")</f>
+        <f t="shared" si="1"/>
         <v>parsecmgmt -a run -p splash2x -i native -n 16  &gt;  results/parsec-result-135-splash2x-native-n16.txt</v>
       </c>
     </row>

--- a/parsec/Parsec - Apoio.xlsx
+++ b/parsec/Parsec - Apoio.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="all inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="evaluation" sheetId="2" r:id="rId2"/>
+    <sheet name="plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -662,9 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2333,9 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
